--- a/data/georgia_census/qvemo-qartli/walka/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/walka/population_total.xlsx
@@ -1368,13 +1368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE69ECB9-9B19-4187-B858-B0773528AE9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E48854-FC0A-41B9-8D11-02C3CCA58FA2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF30DC3C-D1B7-4402-8613-A628B7995A62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577AA02D-7AE1-4996-BFAE-3CEE49EF7028}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E073E27-1718-46B3-9D15-E848BC31DE17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C570C8E0-6CBF-4BBC-8C51-30A1BC31A567}"/>
 </file>